--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,40 +29,97 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>10:42:55 PM</t>
+    <t>6:02:52 PM</t>
   </si>
   <si>
     <t>Lanuch Browser--chrome</t>
   </si>
   <si>
-    <t>10:42:58 PM</t>
+    <t>6:02:56 PM</t>
   </si>
   <si>
     <t>Enter URL--https://demo.nopcommerce.com/</t>
   </si>
   <si>
-    <t>10:42:59 PM</t>
-  </si>
-  <si>
     <t>Verify nopcommerce logo : Element is Present</t>
   </si>
   <si>
     <t>Info</t>
   </si>
   <si>
+    <t>6:02:57 PM</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>10:43:00 PM</t>
-  </si>
-  <si>
     <t>Take sElement screenshot of Logo :Element Screenshot captured</t>
   </si>
   <si>
-    <t>10:43:01 PM</t>
+    <t>6:02:59 PM</t>
   </si>
   <si>
     <t>Click on Register : Element clicked</t>
+  </si>
+  <si>
+    <t>Select Gender radio button : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter First Name:Sai Ram</t>
+  </si>
+  <si>
+    <t>6:03:00 PM</t>
+  </si>
+  <si>
+    <t>Enter Last Name:Pendem</t>
+  </si>
+  <si>
+    <t>6:03:01 PM</t>
+  </si>
+  <si>
+    <t>Choose Date of birth (Date):Selected Value By SELECTBYVALUE is 6</t>
+  </si>
+  <si>
+    <t>Choose Date of birth (Month):Selected Value By SELECTBYVISIBILETEXT is August</t>
+  </si>
+  <si>
+    <t>6:03:02 PM</t>
+  </si>
+  <si>
+    <t>Choose Date of birth (Year):Selected Value By SELECTBYVALUE is 2000</t>
+  </si>
+  <si>
+    <t>Enter Email address:sairamprince019@gmail.com</t>
+  </si>
+  <si>
+    <t>6:03:03 PM</t>
+  </si>
+  <si>
+    <t>Enter company name:Ratna Global Technologies</t>
+  </si>
+  <si>
+    <t>Enter password:Sairam@123</t>
+  </si>
+  <si>
+    <t>6:03:04 PM</t>
+  </si>
+  <si>
+    <t>Enter Confirm passowrd:Sairam@123</t>
+  </si>
+  <si>
+    <t>6:03:07 PM</t>
+  </si>
+  <si>
+    <t>Click on Register button : Element clicked</t>
+  </si>
+  <si>
+    <t>6:03:08 PM</t>
+  </si>
+  <si>
+    <t>Take screenshot of registration completed message : Screenshot captured</t>
+  </si>
+  <si>
+    <t>Verify Registration completed message--Actual:Your registration completed--Expected:Your registration completed</t>
   </si>
   <si>
     <t>username</t>
@@ -150,7 +207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,18 +252,18 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>12</v>
@@ -217,10 +274,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -228,51 +285,205 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="0">
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>16</v>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="0">
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>26</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,19 +29,19 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>10:42:55 PM</t>
+    <t>6:11:48 PM</t>
   </si>
   <si>
     <t>Lanuch Browser--chrome</t>
   </si>
   <si>
-    <t>10:42:58 PM</t>
+    <t>6:11:50 PM</t>
   </si>
   <si>
     <t>Enter URL--https://demo.nopcommerce.com/</t>
   </si>
   <si>
-    <t>10:42:59 PM</t>
+    <t>6:11:51 PM</t>
   </si>
   <si>
     <t>Verify nopcommerce logo : Element is Present</t>
@@ -53,16 +53,67 @@
     <t/>
   </si>
   <si>
-    <t>10:43:00 PM</t>
-  </si>
-  <si>
     <t>Take sElement screenshot of Logo :Element Screenshot captured</t>
   </si>
   <si>
-    <t>10:43:01 PM</t>
+    <t>6:11:53 PM</t>
   </si>
   <si>
     <t>Click on Register : Element clicked</t>
+  </si>
+  <si>
+    <t>Select Gender radio button : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter First Name:Sai Ram</t>
+  </si>
+  <si>
+    <t>Enter Last Name:Pendem</t>
+  </si>
+  <si>
+    <t>6:11:54 PM</t>
+  </si>
+  <si>
+    <t>Choose Date of birth (Date):Selected Value By SELECTBYVALUE is 6</t>
+  </si>
+  <si>
+    <t>Choose Date of birth (Month):Selected Value By SELECTBYVISIBILETEXT is August</t>
+  </si>
+  <si>
+    <t>6:11:55 PM</t>
+  </si>
+  <si>
+    <t>Choose Date of birth (Year):Selected Value By SELECTBYVALUE is 2000</t>
+  </si>
+  <si>
+    <t>Enter Email address:sairamprince019@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter company name:Ratna Global Technologies</t>
+  </si>
+  <si>
+    <t>6:11:56 PM</t>
+  </si>
+  <si>
+    <t>Enter password:Sairam@123</t>
+  </si>
+  <si>
+    <t>Enter Confirm passowrd:Sairam@123</t>
+  </si>
+  <si>
+    <t>6:11:58 PM</t>
+  </si>
+  <si>
+    <t>Click on Register button : Element clicked</t>
+  </si>
+  <si>
+    <t>Take screenshot of registration completed message : Screenshot captured</t>
+  </si>
+  <si>
+    <t>6:11:59 PM</t>
+  </si>
+  <si>
+    <t>Verify Registration completed message--Actual:Your registration completed--Expected:Your registration completed</t>
   </si>
   <si>
     <t>username</t>
@@ -150,7 +201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -217,10 +268,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -228,51 +279,205 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="0">
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>16</v>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="0">
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>26</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,91 +29,143 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>6:11:48 PM</t>
-  </si>
-  <si>
-    <t>Lanuch Browser--chrome</t>
-  </si>
-  <si>
-    <t>6:11:50 PM</t>
-  </si>
-  <si>
-    <t>Enter URL--https://demo.nopcommerce.com/</t>
-  </si>
-  <si>
-    <t>6:11:51 PM</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce logo : Element is Present</t>
-  </si>
-  <si>
-    <t>Info</t>
+    <t>4:26:13 PM</t>
+  </si>
+  <si>
+    <t>Lanuch browser--chrome</t>
+  </si>
+  <si>
+    <t>4:26:15 PM</t>
+  </si>
+  <si>
+    <t>Enter URL--https://www.ratnaglobaltech.com/</t>
+  </si>
+  <si>
+    <t>Verify Logo is displayed or not : Element is Present</t>
+  </si>
+  <si>
+    <t>verify Email id--Actual:contact@ratnaglobaltech.com--Expected:contact@ratnaglobaltech.com</t>
+  </si>
+  <si>
+    <t>Close browser</t>
+  </si>
+  <si>
+    <t>4:26:17 PM</t>
+  </si>
+  <si>
+    <t>4:26:22 PM</t>
+  </si>
+  <si>
+    <t>Enter URL--https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>4:26:27 PM</t>
+  </si>
+  <si>
+    <t>Mousehover on Accounts and Lists : Mouse hovered on element</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Click on sign in is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.ElementNotInteractableException: element not interactable
+  (Session info: chrome=115.0.5790.110)
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0552697881153704d0ce7eb3e0650048, clickElement {id=08D0257B693C2F4D2748282934BFE048_element_26}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 115.0.5790.110, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52677}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52677/devtoo..., se:cdpVersion: 115.0.5790.110, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (0552697881153704d0ce7eb3e0650048)] -&gt; xpath: //*[@id="nav-flyout-ya-signin"]/a/span]
+Session ID: 0552697881153704d0ce7eb3e0650048</t>
+  </si>
+  <si>
+    <t>4:26:28 PM</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Take sElement screenshot of Logo :Element Screenshot captured</t>
-  </si>
-  <si>
-    <t>6:11:53 PM</t>
-  </si>
-  <si>
-    <t>Click on Register : Element clicked</t>
-  </si>
-  <si>
-    <t>Select Gender radio button : Element clicked</t>
-  </si>
-  <si>
-    <t>Enter First Name:Sai Ram</t>
-  </si>
-  <si>
-    <t>Enter Last Name:Pendem</t>
-  </si>
-  <si>
-    <t>6:11:54 PM</t>
-  </si>
-  <si>
-    <t>Choose Date of birth (Date):Selected Value By SELECTBYVALUE is 6</t>
-  </si>
-  <si>
-    <t>Choose Date of birth (Month):Selected Value By SELECTBYVISIBILETEXT is August</t>
-  </si>
-  <si>
-    <t>6:11:55 PM</t>
-  </si>
-  <si>
-    <t>Choose Date of birth (Year):Selected Value By SELECTBYVALUE is 2000</t>
-  </si>
-  <si>
-    <t>Enter Email address:sairamprince019@gmail.com</t>
-  </si>
-  <si>
-    <t>Enter company name:Ratna Global Technologies</t>
-  </si>
-  <si>
-    <t>6:11:56 PM</t>
-  </si>
-  <si>
-    <t>Enter password:Sairam@123</t>
-  </si>
-  <si>
-    <t>Enter Confirm passowrd:Sairam@123</t>
-  </si>
-  <si>
-    <t>6:11:58 PM</t>
-  </si>
-  <si>
-    <t>Click on Register button : Element clicked</t>
-  </si>
-  <si>
-    <t>Take screenshot of registration completed message : Screenshot captured</t>
-  </si>
-  <si>
-    <t>6:11:59 PM</t>
-  </si>
-  <si>
-    <t>Verify Registration completed message--Actual:Your registration completed--Expected:Your registration completed</t>
+    <t>Click on sign in - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Enter Eamil or phone number is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"#ap_email"}
+  (Session info: chrome=115.0.5790.110)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0552697881153704d0ce7eb3e0650048, findElement {using=id, value=ap_email}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 115.0.5790.110, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52677}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52677/devtoo..., se:cdpVersion: 115.0.5790.110, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0552697881153704d0ce7eb3e0650048</t>
+  </si>
+  <si>
+    <t>4:26:29 PM</t>
+  </si>
+  <si>
+    <t>Enter Eamil or phone number - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Click on continue button is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="continue"]"}
+  (Session info: chrome=115.0.5790.110)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0552697881153704d0ce7eb3e0650048, findElement {using=xpath, value=//*[@id="continue"]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 115.0.5790.110, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52677}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52677/devtoo..., se:cdpVersion: 115.0.5790.110, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0552697881153704d0ce7eb3e0650048</t>
+  </si>
+  <si>
+    <t>4:26:30 PM</t>
+  </si>
+  <si>
+    <t>Click on continue button - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Enter password is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='password']"}
+  (Session info: chrome=115.0.5790.110)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0552697881153704d0ce7eb3e0650048, findElement {using=name, value=password}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 115.0.5790.110, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52677}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52677/devtoo..., se:cdpVersion: 115.0.5790.110, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0552697881153704d0ce7eb3e0650048</t>
+  </si>
+  <si>
+    <t>Enter password - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Click on sign in button is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="signInSubmit"]"}
+  (Session info: chrome=115.0.5790.110)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.10.0', revision: 'c14d967899'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0552697881153704d0ce7eb3e0650048, findElement {using=xpath, value=//*[@id="signInSubmit"]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 115.0.5790.110, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52677}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52677/devtoo..., se:cdpVersion: 115.0.5790.110, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0552697881153704d0ce7eb3e0650048</t>
+  </si>
+  <si>
+    <t>4:26:31 PM</t>
+  </si>
+  <si>
+    <t>Click on sign in button - Test case failed base64 img</t>
   </si>
   <si>
     <t>username</t>
@@ -201,7 +253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -246,21 +298,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -268,32 +320,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -301,10 +343,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -312,10 +354,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -323,161 +365,282 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B37" t="s" s="0">
         <v>43</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,67 +29,43 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>10:48:20 AM</t>
-  </si>
-  <si>
-    <t>Lanuch browser--edge</t>
-  </si>
-  <si>
-    <t>10:48:23 AM</t>
+    <t>12:44:19 PM</t>
+  </si>
+  <si>
+    <t>Lanuch browser--chrome</t>
+  </si>
+  <si>
+    <t>12:44:21 PM</t>
   </si>
   <si>
     <t>Enter URL--https://www.ratnaglobaltech.com/</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>10:48:24 AM</t>
-  </si>
-  <si>
-    <t>Verify Logo is displayed or not is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.InvalidSelectorException: invalid selector: Unable to locate an element with the xpath expression //*[@id="header"]/div/div/div/a/??????? because of the following error:
-SyntaxError: Failed to execute 'evaluate' on 'Document': The string '//*[@id="header"]/div/div/div/a/???????' is not a valid XPath expression.
-  (Session info: MicrosoftEdge=115.0.1901.203)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalid-selector-exception
-Build info: version: '4.10.0', revision: 'c14d967899'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Command: [da8e819c761b6665bf1371e5e8fe6486, findElement {using=xpath, value=//*[@id="header"]/div/div/div/a/???????}]
-Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 115.0.1901.203, ms:edgeOptions: {debuggerAddress: localhost:60568}, msedge: {msedgedriverVersion: 115.0.1901.203 (a5a2b1779bc..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60568/devtoo..., se:cdpVersion: 115.0.1901.203, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: da8e819c761b6665bf1371e5e8fe6486</t>
+    <t>Verify Logo is displayed or not : Element is Present</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>12:44:22 PM</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>10:48:25 AM</t>
-  </si>
-  <si>
-    <t>Verify Logo is displayed or not - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
     <t>Logo element screenshot :Element Screenshot captured</t>
   </si>
   <si>
     <t>verify Email id--Actual:contact@ratnaglobaltech.com--Expected:contact@ratnaglobaltech.com</t>
   </si>
   <si>
-    <t>10:48:26 AM</t>
-  </si>
-  <si>
     <t>get text:contact@ratnaglobaltech.com</t>
   </si>
   <si>
     <t>Scroll to visible element : scrolled to visible element</t>
   </si>
   <si>
-    <t>10:48:29 AM</t>
+    <t>12:44:25 PM</t>
   </si>
   <si>
     <t>Wait--3sec</t>
@@ -98,22 +74,139 @@
     <t>click on back to top button : Element clicked</t>
   </si>
   <si>
-    <t>10:48:33 AM</t>
+    <t>12:44:28 PM</t>
+  </si>
+  <si>
+    <t>12:44:29 PM</t>
   </si>
   <si>
     <t>Scroll to clients element : scrolled to visible element</t>
   </si>
   <si>
-    <t>10:48:36 AM</t>
-  </si>
-  <si>
-    <t>10:48:37 AM</t>
-  </si>
-  <si>
     <t>clients screenshot : Screenshot captured</t>
   </si>
   <si>
     <t>Close browser</t>
+  </si>
+  <si>
+    <t>12:44:31 PM</t>
+  </si>
+  <si>
+    <t>12:44:34 PM</t>
+  </si>
+  <si>
+    <t>Enter URL--https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>Verify logo displayed or not : Element is Present</t>
+  </si>
+  <si>
+    <t>Take logo element screenshot :Element Screenshot captured</t>
+  </si>
+  <si>
+    <t>12:44:35 PM</t>
+  </si>
+  <si>
+    <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
+  </si>
+  <si>
+    <t>12:44:36 PM</t>
+  </si>
+  <si>
+    <t>Click in sign in : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address:9949584131</t>
+  </si>
+  <si>
+    <t>12:44:37 PM</t>
+  </si>
+  <si>
+    <t>click on continue button : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter passowrd:Sairam@123</t>
+  </si>
+  <si>
+    <t>Click on sign in button : Element clicked</t>
+  </si>
+  <si>
+    <t>12:44:40 PM</t>
+  </si>
+  <si>
+    <t>Search amazon.in:mobiles</t>
+  </si>
+  <si>
+    <t>12:44:43 PM</t>
+  </si>
+  <si>
+    <t>Click on search button : Element clicked</t>
+  </si>
+  <si>
+    <t>Verify mobile results are displayed or not : Element is Present</t>
+  </si>
+  <si>
+    <t>12:44:45 PM</t>
+  </si>
+  <si>
+    <t>Click on sign out button : Element clicked</t>
+  </si>
+  <si>
+    <t>12:44:46 PM</t>
+  </si>
+  <si>
+    <t>12:44:49 PM</t>
+  </si>
+  <si>
+    <t>Enter URL--https://demo.nopcommerce.com/</t>
+  </si>
+  <si>
+    <t>verify logo is preser or not : Element is Present</t>
+  </si>
+  <si>
+    <t>12:44:50 PM</t>
+  </si>
+  <si>
+    <t>Click on Register : Element clicked</t>
+  </si>
+  <si>
+    <t>Select gender : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter first name:Sai ram</t>
+  </si>
+  <si>
+    <t>Enter last name:Pendem</t>
+  </si>
+  <si>
+    <t>Select Date of birth [Day]:Selected Value By SELECTBYVALUE is 6</t>
+  </si>
+  <si>
+    <t>12:44:51 PM</t>
+  </si>
+  <si>
+    <t>Select Date of birth [Month]:Selected Value By SELECTBYVISIBILETEXT is August</t>
+  </si>
+  <si>
+    <t>Select Date of birth [Year]:Selected Value By SELECTBYVALUE is 2000</t>
+  </si>
+  <si>
+    <t>Enter Eamil address:ratnaglobaltehnologies001@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter company name:Ratna Global Technologies</t>
+  </si>
+  <si>
+    <t>Enter passowrd:Test@123</t>
+  </si>
+  <si>
+    <t>Enter confirm password:Test@123</t>
+  </si>
+  <si>
+    <t>12:44:53 PM</t>
+  </si>
+  <si>
+    <t>Click on Register button : Element clicked</t>
   </si>
   <si>
     <t>username</t>
@@ -201,7 +294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -243,21 +336,21 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>12</v>
@@ -265,10 +358,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>13</v>
@@ -276,24 +369,24 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -301,10 +394,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -312,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>18</v>
@@ -323,10 +416,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -334,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -345,21 +438,21 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -367,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>23</v>
@@ -378,32 +471,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18"/>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -411,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -422,51 +505,404 @@
         <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="C30" t="s" s="0">
         <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55"/>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,33 +29,36 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>12:44:19 PM</t>
+    <t>3:16:35 PM</t>
   </si>
   <si>
     <t>Lanuch browser--chrome</t>
   </si>
   <si>
-    <t>12:44:21 PM</t>
+    <t>3:16:37 PM</t>
   </si>
   <si>
     <t>Enter URL--https://www.ratnaglobaltech.com/</t>
   </si>
   <si>
+    <t>3:16:38 PM</t>
+  </si>
+  <si>
     <t>Verify Logo is displayed or not : Element is Present</t>
   </si>
   <si>
     <t>Info</t>
   </si>
   <si>
-    <t>12:44:22 PM</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>Logo element screenshot :Element Screenshot captured</t>
   </si>
   <si>
+    <t>3:16:39 PM</t>
+  </si>
+  <si>
     <t>verify Email id--Actual:contact@ratnaglobaltech.com--Expected:contact@ratnaglobaltech.com</t>
   </si>
   <si>
@@ -65,34 +68,37 @@
     <t>Scroll to visible element : scrolled to visible element</t>
   </si>
   <si>
-    <t>12:44:25 PM</t>
+    <t>3:16:42 PM</t>
   </si>
   <si>
     <t>Wait--3sec</t>
   </si>
   <si>
+    <t>3:16:43 PM</t>
+  </si>
+  <si>
     <t>click on back to top button : Element clicked</t>
   </si>
   <si>
-    <t>12:44:28 PM</t>
-  </si>
-  <si>
-    <t>12:44:29 PM</t>
+    <t>3:16:46 PM</t>
   </si>
   <si>
     <t>Scroll to clients element : scrolled to visible element</t>
   </si>
   <si>
+    <t>3:16:47 PM</t>
+  </si>
+  <si>
     <t>clients screenshot : Screenshot captured</t>
   </si>
   <si>
     <t>Close browser</t>
   </si>
   <si>
-    <t>12:44:31 PM</t>
-  </si>
-  <si>
-    <t>12:44:34 PM</t>
+    <t>3:16:49 PM</t>
+  </si>
+  <si>
+    <t>3:16:52 PM</t>
   </si>
   <si>
     <t>Enter URL--https://www.amazon.in/</t>
@@ -101,16 +107,16 @@
     <t>Verify logo displayed or not : Element is Present</t>
   </si>
   <si>
+    <t>3:16:53 PM</t>
+  </si>
+  <si>
     <t>Take logo element screenshot :Element Screenshot captured</t>
   </si>
   <si>
-    <t>12:44:35 PM</t>
-  </si>
-  <si>
     <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
   </si>
   <si>
-    <t>12:44:36 PM</t>
+    <t>3:16:54 PM</t>
   </si>
   <si>
     <t>Click in sign in : Element clicked</t>
@@ -119,7 +125,7 @@
     <t>Enter mobile number or Email address:9949584131</t>
   </si>
   <si>
-    <t>12:44:37 PM</t>
+    <t>3:16:55 PM</t>
   </si>
   <si>
     <t>click on continue button : Element clicked</t>
@@ -128,16 +134,19 @@
     <t>Enter passowrd:Sairam@123</t>
   </si>
   <si>
+    <t>3:16:56 PM</t>
+  </si>
+  <si>
     <t>Click on sign in button : Element clicked</t>
   </si>
   <si>
-    <t>12:44:40 PM</t>
+    <t>3:16:59 PM</t>
   </si>
   <si>
     <t>Search amazon.in:mobiles</t>
   </si>
   <si>
-    <t>12:44:43 PM</t>
+    <t>3:17:02 PM</t>
   </si>
   <si>
     <t>Click on search button : Element clicked</t>
@@ -146,25 +155,28 @@
     <t>Verify mobile results are displayed or not : Element is Present</t>
   </si>
   <si>
-    <t>12:44:45 PM</t>
+    <t>3:17:04 PM</t>
   </si>
   <si>
     <t>Click on sign out button : Element clicked</t>
   </si>
   <si>
-    <t>12:44:46 PM</t>
-  </si>
-  <si>
-    <t>12:44:49 PM</t>
+    <t>3:17:05 PM</t>
+  </si>
+  <si>
+    <t>3:17:08 PM</t>
   </si>
   <si>
     <t>Enter URL--https://demo.nopcommerce.com/</t>
   </si>
   <si>
+    <t>3:17:09 PM</t>
+  </si>
+  <si>
     <t>verify logo is preser or not : Element is Present</t>
   </si>
   <si>
-    <t>12:44:50 PM</t>
+    <t>3:17:10 PM</t>
   </si>
   <si>
     <t>Click on Register : Element clicked</t>
@@ -173,6 +185,9 @@
     <t>Select gender : Element clicked</t>
   </si>
   <si>
+    <t>3:17:11 PM</t>
+  </si>
+  <si>
     <t>Enter first name:Sai ram</t>
   </si>
   <si>
@@ -182,12 +197,12 @@
     <t>Select Date of birth [Day]:Selected Value By SELECTBYVALUE is 6</t>
   </si>
   <si>
-    <t>12:44:51 PM</t>
-  </si>
-  <si>
     <t>Select Date of birth [Month]:Selected Value By SELECTBYVISIBILETEXT is August</t>
   </si>
   <si>
+    <t>3:17:12 PM</t>
+  </si>
+  <si>
     <t>Select Date of birth [Year]:Selected Value By SELECTBYVALUE is 2000</t>
   </si>
   <si>
@@ -200,10 +215,13 @@
     <t>Enter passowrd:Test@123</t>
   </si>
   <si>
+    <t>3:17:13 PM</t>
+  </si>
+  <si>
     <t>Enter confirm password:Test@123</t>
   </si>
   <si>
-    <t>12:44:53 PM</t>
+    <t>3:17:14 PM</t>
   </si>
   <si>
     <t>Click on Register button : Element clicked</t>
@@ -339,18 +357,18 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>12</v>
@@ -361,7 +379,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>13</v>
@@ -372,10 +390,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -383,10 +401,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -394,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -405,10 +423,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -416,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -427,10 +445,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -438,18 +456,18 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>12</v>
@@ -460,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -471,10 +489,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18"/>
@@ -483,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -494,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -505,18 +523,18 @@
         <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>12</v>
@@ -527,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -538,10 +556,10 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -549,10 +567,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -560,10 +578,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -571,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -582,10 +600,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -593,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -604,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -615,10 +633,10 @@
         <v>4</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -626,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -637,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -648,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -659,10 +677,10 @@
         <v>4</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36"/>
@@ -671,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
@@ -682,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
@@ -693,18 +711,18 @@
         <v>4</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>12</v>
@@ -715,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -726,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -737,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
@@ -748,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
@@ -759,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -770,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
@@ -781,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48">
@@ -792,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49">
@@ -803,10 +821,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50">
@@ -814,10 +832,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
@@ -825,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52">
@@ -836,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53">
@@ -847,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -858,51 +876,51 @@
         <v>4</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55"/>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,202 +29,141 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>3:16:35 PM</t>
+    <t>11:47:05 AM</t>
   </si>
   <si>
     <t>Lanuch browser--chrome</t>
   </si>
   <si>
-    <t>3:16:37 PM</t>
-  </si>
-  <si>
-    <t>Enter URL--https://www.ratnaglobaltech.com/</t>
-  </si>
-  <si>
-    <t>3:16:38 PM</t>
-  </si>
-  <si>
-    <t>Verify Logo is displayed or not : Element is Present</t>
+    <t>11:47:08 AM</t>
+  </si>
+  <si>
+    <t>Enter URL--https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
+  </si>
+  <si>
+    <t>11:47:09 AM</t>
+  </si>
+  <si>
+    <t>Click in sign in : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address:9949584131</t>
+  </si>
+  <si>
+    <t>11:47:11 AM</t>
+  </si>
+  <si>
+    <t>click on continue button : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter passowrd:Sairam@123</t>
+  </si>
+  <si>
+    <t>Click on sign in button : Element clicked</t>
+  </si>
+  <si>
+    <t>11:47:14 AM</t>
+  </si>
+  <si>
+    <t>Wait--3sec</t>
+  </si>
+  <si>
+    <t>11:47:15 AM</t>
+  </si>
+  <si>
+    <t>Close browser</t>
+  </si>
+  <si>
+    <t>11:47:17 AM</t>
+  </si>
+  <si>
+    <t>11:47:20 AM</t>
+  </si>
+  <si>
+    <t>11:47:21 AM</t>
+  </si>
+  <si>
+    <t>11:47:22 AM</t>
+  </si>
+  <si>
+    <t>11:47:23 AM</t>
+  </si>
+  <si>
+    <t>Enter passowrd:871guhn</t>
+  </si>
+  <si>
+    <t>11:47:24 AM</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>11:47:25 AM</t>
+  </si>
+  <si>
+    <t>Verify Logo is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="nav-logo-sprites"]"}
+  (Session info: chrome=117.0.5938.89)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0cd6b2161972cc00625166f38c42b19f, findElement {using=xpath, value=//*[@id="nav-logo-sprites"]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.89, chrome: {chromedriverVersion: 117.0.5938.88 (be6afae47212..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50568}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50568/devtoo..., se:cdpVersion: 117.0.5938.89, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0cd6b2161972cc00625166f38c42b19f</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Verify Logo - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>11:47:28 AM</t>
+  </si>
+  <si>
+    <t>11:47:30 AM</t>
+  </si>
+  <si>
+    <t>11:47:34 AM</t>
+  </si>
+  <si>
+    <t>11:47:35 AM</t>
+  </si>
+  <si>
+    <t>11:47:36 AM</t>
+  </si>
+  <si>
+    <t>11:47:37 AM</t>
   </si>
   <si>
     <t>Info</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Logo element screenshot :Element Screenshot captured</t>
-  </si>
-  <si>
-    <t>3:16:39 PM</t>
-  </si>
-  <si>
-    <t>verify Email id--Actual:contact@ratnaglobaltech.com--Expected:contact@ratnaglobaltech.com</t>
-  </si>
-  <si>
-    <t>get text:contact@ratnaglobaltech.com</t>
-  </si>
-  <si>
-    <t>Scroll to visible element : scrolled to visible element</t>
-  </si>
-  <si>
-    <t>3:16:42 PM</t>
-  </si>
-  <si>
-    <t>Wait--3sec</t>
-  </si>
-  <si>
-    <t>3:16:43 PM</t>
-  </si>
-  <si>
-    <t>click on back to top button : Element clicked</t>
-  </si>
-  <si>
-    <t>3:16:46 PM</t>
-  </si>
-  <si>
-    <t>Scroll to clients element : scrolled to visible element</t>
-  </si>
-  <si>
-    <t>3:16:47 PM</t>
-  </si>
-  <si>
-    <t>clients screenshot : Screenshot captured</t>
-  </si>
-  <si>
-    <t>Close browser</t>
-  </si>
-  <si>
-    <t>3:16:49 PM</t>
-  </si>
-  <si>
-    <t>3:16:52 PM</t>
-  </si>
-  <si>
-    <t>Enter URL--https://www.amazon.in/</t>
-  </si>
-  <si>
-    <t>Verify logo displayed or not : Element is Present</t>
-  </si>
-  <si>
-    <t>3:16:53 PM</t>
-  </si>
-  <si>
-    <t>Take logo element screenshot :Element Screenshot captured</t>
-  </si>
-  <si>
-    <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
-  </si>
-  <si>
-    <t>3:16:54 PM</t>
-  </si>
-  <si>
-    <t>Click in sign in : Element clicked</t>
-  </si>
-  <si>
-    <t>Enter mobile number or Email address:9949584131</t>
-  </si>
-  <si>
-    <t>3:16:55 PM</t>
-  </si>
-  <si>
-    <t>click on continue button : Element clicked</t>
-  </si>
-  <si>
-    <t>Enter passowrd:Sairam@123</t>
-  </si>
-  <si>
-    <t>3:16:56 PM</t>
-  </si>
-  <si>
-    <t>Click on sign in button : Element clicked</t>
-  </si>
-  <si>
-    <t>3:16:59 PM</t>
-  </si>
-  <si>
-    <t>Search amazon.in:mobiles</t>
-  </si>
-  <si>
-    <t>3:17:02 PM</t>
+    <t>11:47:40 AM</t>
+  </si>
+  <si>
+    <t>Logo screenshot :Element Screenshot captured</t>
+  </si>
+  <si>
+    <t>Search item in search bar:Apple iPhone 14 (128 GB) - Blue</t>
+  </si>
+  <si>
+    <t>11:47:42 AM</t>
   </si>
   <si>
     <t>Click on search button : Element clicked</t>
   </si>
   <si>
-    <t>Verify mobile results are displayed or not : Element is Present</t>
-  </si>
-  <si>
-    <t>3:17:04 PM</t>
-  </si>
-  <si>
-    <t>Click on sign out button : Element clicked</t>
-  </si>
-  <si>
-    <t>3:17:05 PM</t>
-  </si>
-  <si>
-    <t>3:17:08 PM</t>
-  </si>
-  <si>
-    <t>Enter URL--https://demo.nopcommerce.com/</t>
-  </si>
-  <si>
-    <t>3:17:09 PM</t>
-  </si>
-  <si>
-    <t>verify logo is preser or not : Element is Present</t>
-  </si>
-  <si>
-    <t>3:17:10 PM</t>
-  </si>
-  <si>
-    <t>Click on Register : Element clicked</t>
-  </si>
-  <si>
-    <t>Select gender : Element clicked</t>
-  </si>
-  <si>
-    <t>3:17:11 PM</t>
-  </si>
-  <si>
-    <t>Enter first name:Sai ram</t>
-  </si>
-  <si>
-    <t>Enter last name:Pendem</t>
-  </si>
-  <si>
-    <t>Select Date of birth [Day]:Selected Value By SELECTBYVALUE is 6</t>
-  </si>
-  <si>
-    <t>Select Date of birth [Month]:Selected Value By SELECTBYVISIBILETEXT is August</t>
-  </si>
-  <si>
-    <t>3:17:12 PM</t>
-  </si>
-  <si>
-    <t>Select Date of birth [Year]:Selected Value By SELECTBYVALUE is 2000</t>
-  </si>
-  <si>
-    <t>Enter Eamil address:ratnaglobaltehnologies001@gmail.com</t>
-  </si>
-  <si>
-    <t>Enter company name:Ratna Global Technologies</t>
-  </si>
-  <si>
-    <t>Enter passowrd:Test@123</t>
-  </si>
-  <si>
-    <t>3:17:13 PM</t>
-  </si>
-  <si>
-    <t>Enter confirm password:Test@123</t>
-  </si>
-  <si>
-    <t>3:17:14 PM</t>
-  </si>
-  <si>
-    <t>Click on Register button : Element clicked</t>
+    <t>11:47:44 AM</t>
+  </si>
+  <si>
+    <t>Click on signOut : Element clicked</t>
   </si>
   <si>
     <t>username</t>
@@ -312,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -357,21 +296,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -379,10 +318,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -390,10 +329,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -401,10 +340,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -412,10 +351,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -423,10 +362,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -434,43 +373,33 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
+    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -478,10 +407,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -489,22 +418,32 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18"/>
+      <c r="C18" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
     <row r="19">
       <c r="A19" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -512,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -523,54 +462,54 @@
         <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -581,7 +520,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -589,32 +528,22 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -622,10 +551,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -633,10 +562,10 @@
         <v>4</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -644,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -655,10 +584,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -666,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -677,22 +606,32 @@
         <v>4</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -700,10 +639,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -711,21 +650,21 @@
         <v>4</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -733,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -744,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -755,172 +694,51 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44"/>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55"/>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>11:47:05 AM</t>
+    <t>3:29:08 PM</t>
   </si>
   <si>
     <t>Lanuch browser--chrome</t>
   </si>
   <si>
-    <t>11:47:08 AM</t>
+    <t>3:29:12 PM</t>
   </si>
   <si>
     <t>Enter URL--https://www.amazon.in/</t>
@@ -44,7 +44,7 @@
     <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
   </si>
   <si>
-    <t>11:47:09 AM</t>
+    <t>3:29:14 PM</t>
   </si>
   <si>
     <t>Click in sign in : Element clicked</t>
@@ -53,117 +53,100 @@
     <t>Enter mobile number or Email address:9949584131</t>
   </si>
   <si>
-    <t>11:47:11 AM</t>
+    <t>3:29:15 PM</t>
   </si>
   <si>
     <t>click on continue button : Element clicked</t>
   </si>
   <si>
+    <t>3:29:16 PM</t>
+  </si>
+  <si>
     <t>Enter passowrd:Sairam@123</t>
   </si>
   <si>
     <t>Click on sign in button : Element clicked</t>
   </si>
   <si>
-    <t>11:47:14 AM</t>
+    <t>3:29:19 PM</t>
   </si>
   <si>
     <t>Wait--3sec</t>
   </si>
   <si>
-    <t>11:47:15 AM</t>
+    <t>3:29:20 PM</t>
   </si>
   <si>
     <t>Close browser</t>
   </si>
   <si>
-    <t>11:47:17 AM</t>
-  </si>
-  <si>
-    <t>11:47:20 AM</t>
-  </si>
-  <si>
-    <t>11:47:21 AM</t>
-  </si>
-  <si>
-    <t>11:47:22 AM</t>
-  </si>
-  <si>
-    <t>11:47:23 AM</t>
+    <t>3:29:21 PM</t>
+  </si>
+  <si>
+    <t>3:29:25 PM</t>
+  </si>
+  <si>
+    <t>3:29:26 PM</t>
+  </si>
+  <si>
+    <t>3:29:27 PM</t>
+  </si>
+  <si>
+    <t>3:29:28 PM</t>
   </si>
   <si>
     <t>Enter passowrd:871guhn</t>
   </si>
   <si>
-    <t>11:47:24 AM</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>11:47:25 AM</t>
-  </si>
-  <si>
-    <t>Verify Logo is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="nav-logo-sprites"]"}
-  (Session info: chrome=117.0.5938.89)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.11.0', revision: '040bc5406b'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0cd6b2161972cc00625166f38c42b19f, findElement {using=xpath, value=//*[@id="nav-logo-sprites"]}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.89, chrome: {chromedriverVersion: 117.0.5938.88 (be6afae47212..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50568}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50568/devtoo..., se:cdpVersion: 117.0.5938.89, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0cd6b2161972cc00625166f38c42b19f</t>
+    <t>3:29:32 PM</t>
+  </si>
+  <si>
+    <t>3:29:33 PM</t>
+  </si>
+  <si>
+    <t>3:29:37 PM</t>
+  </si>
+  <si>
+    <t>3:29:38 PM</t>
+  </si>
+  <si>
+    <t>3:29:39 PM</t>
+  </si>
+  <si>
+    <t>3:29:40 PM</t>
+  </si>
+  <si>
+    <t>3:29:41 PM</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>3:29:45 PM</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Verify Logo - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>11:47:28 AM</t>
-  </si>
-  <si>
-    <t>11:47:30 AM</t>
-  </si>
-  <si>
-    <t>11:47:34 AM</t>
-  </si>
-  <si>
-    <t>11:47:35 AM</t>
-  </si>
-  <si>
-    <t>11:47:36 AM</t>
-  </si>
-  <si>
-    <t>11:47:37 AM</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>11:47:40 AM</t>
-  </si>
-  <si>
     <t>Logo screenshot :Element Screenshot captured</t>
   </si>
   <si>
     <t>Search item in search bar:Apple iPhone 14 (128 GB) - Blue</t>
   </si>
   <si>
-    <t>11:47:42 AM</t>
+    <t>3:29:48 PM</t>
   </si>
   <si>
     <t>Click on search button : Element clicked</t>
   </si>
   <si>
-    <t>11:47:44 AM</t>
+    <t>3:29:49 PM</t>
   </si>
   <si>
     <t>Click on signOut : Element clicked</t>
+  </si>
+  <si>
+    <t>3:29:50 PM</t>
   </si>
   <si>
     <t>username</t>
@@ -251,7 +234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,10 +323,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -351,10 +334,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -362,10 +345,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -373,10 +356,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13"/>
@@ -385,7 +368,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
@@ -396,7 +379,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
@@ -407,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>9</v>
@@ -418,7 +401,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>11</v>
@@ -429,7 +412,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>12</v>
@@ -440,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>14</v>
@@ -451,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -462,54 +445,44 @@
         <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="C22" t="s" s="0">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="C23" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>29</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -517,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -528,22 +501,32 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
     <row r="29">
       <c r="A29" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -551,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -562,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -573,21 +556,21 @@
         <v>4</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -595,10 +578,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -606,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="B35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -617,21 +600,21 @@
         <v>4</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="C37" t="s" s="0">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -639,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -650,95 +633,51 @@
         <v>4</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40"/>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>3:29:08 PM</t>
+    <t>12:56:42 PM</t>
   </si>
   <si>
     <t>Lanuch browser--chrome</t>
   </si>
   <si>
-    <t>3:29:12 PM</t>
+    <t>12:56:46 PM</t>
   </si>
   <si>
     <t>Enter URL--https://www.amazon.in/</t>
@@ -44,109 +44,170 @@
     <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
   </si>
   <si>
-    <t>3:29:14 PM</t>
+    <t>12:56:47 PM</t>
   </si>
   <si>
     <t>Click in sign in : Element clicked</t>
   </si>
   <si>
+    <t>12:56:48 PM</t>
+  </si>
+  <si>
     <t>Enter mobile number or Email address:9949584131</t>
   </si>
   <si>
-    <t>3:29:15 PM</t>
+    <t>12:56:49 PM</t>
   </si>
   <si>
     <t>click on continue button : Element clicked</t>
   </si>
   <si>
-    <t>3:29:16 PM</t>
-  </si>
-  <si>
     <t>Enter passowrd:Sairam@123</t>
   </si>
   <si>
+    <t>12:56:50 PM</t>
+  </si>
+  <si>
     <t>Click on sign in button : Element clicked</t>
   </si>
   <si>
-    <t>3:29:19 PM</t>
+    <t>12:56:53 PM</t>
   </si>
   <si>
     <t>Wait--3sec</t>
   </si>
   <si>
-    <t>3:29:20 PM</t>
-  </si>
-  <si>
     <t>Close browser</t>
   </si>
   <si>
-    <t>3:29:21 PM</t>
-  </si>
-  <si>
-    <t>3:29:25 PM</t>
-  </si>
-  <si>
-    <t>3:29:26 PM</t>
-  </si>
-  <si>
-    <t>3:29:27 PM</t>
-  </si>
-  <si>
-    <t>3:29:28 PM</t>
-  </si>
-  <si>
-    <t>Enter passowrd:871guhn</t>
-  </si>
-  <si>
-    <t>3:29:32 PM</t>
-  </si>
-  <si>
-    <t>3:29:33 PM</t>
-  </si>
-  <si>
-    <t>3:29:37 PM</t>
-  </si>
-  <si>
-    <t>3:29:38 PM</t>
-  </si>
-  <si>
-    <t>3:29:39 PM</t>
-  </si>
-  <si>
-    <t>3:29:40 PM</t>
-  </si>
-  <si>
-    <t>3:29:41 PM</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>3:29:45 PM</t>
+    <t>12:56:56 PM</t>
+  </si>
+  <si>
+    <t>Lanuch browser--edge</t>
+  </si>
+  <si>
+    <t>12:56:59 PM</t>
+  </si>
+  <si>
+    <t>12:57:00 PM</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Click in sign in is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.ElementNotInteractableException: element not interactable
+  (Session info: MicrosoftEdge=117.0.2045.36)
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [c578ef47c97df800373e6eabb7edbdbd, clickElement {id=28B3C61B7A30EC376F82227AC61262C6_element_95}]
+Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[EdgeDriver: msedge on windows (c578ef47c97df800373e6eabb7edbdbd)] -&gt; xpath: //*[@id="nav-flyout-ya-signin"]/a/span]
+Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
+  </si>
+  <si>
+    <t>12:57:01 PM</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Logo screenshot :Element Screenshot captured</t>
-  </si>
-  <si>
-    <t>Search item in search bar:Apple iPhone 14 (128 GB) - Blue</t>
-  </si>
-  <si>
-    <t>3:29:48 PM</t>
-  </si>
-  <si>
-    <t>Click on search button : Element clicked</t>
-  </si>
-  <si>
-    <t>3:29:49 PM</t>
-  </si>
-  <si>
-    <t>Click on signOut : Element clicked</t>
-  </si>
-  <si>
-    <t>3:29:50 PM</t>
+    <t>Click in sign in - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="ap_email"]"}
+  (Session info: MicrosoftEdge=117.0.2045.36)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [c578ef47c97df800373e6eabb7edbdbd, findElement {using=xpath, value=//*[@id="ap_email"]}]
+Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
+  </si>
+  <si>
+    <t>12:57:02 PM</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>12:57:03 PM</t>
+  </si>
+  <si>
+    <t>click on continue button is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="continue"]"}
+  (Session info: MicrosoftEdge=117.0.2045.36)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [c578ef47c97df800373e6eabb7edbdbd, findElement {using=xpath, value=//*[@id="continue"]}]
+Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
+  </si>
+  <si>
+    <t>12:57:04 PM</t>
+  </si>
+  <si>
+    <t>click on continue button - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Enter passowrd is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="ap_password"]"}
+  (Session info: MicrosoftEdge=117.0.2045.36)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [c578ef47c97df800373e6eabb7edbdbd, findElement {using=xpath, value=//*[@id="ap_password"]}]
+Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
+  </si>
+  <si>
+    <t>12:57:05 PM</t>
+  </si>
+  <si>
+    <t>Enter passowrd - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Click on sign in button is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="signInSubmit"]"}
+  (Session info: MicrosoftEdge=117.0.2045.36)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [c578ef47c97df800373e6eabb7edbdbd, findElement {using=xpath, value=//*[@id="signInSubmit"]}]
+Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
+  </si>
+  <si>
+    <t>Click on sign in button - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>12:57:06 PM</t>
+  </si>
+  <si>
+    <t>Verify Logo : Element is Present</t>
+  </si>
+  <si>
+    <t>12:57:09 PM</t>
+  </si>
+  <si>
+    <t>12:57:10 PM</t>
   </si>
   <si>
     <t>username</t>
@@ -301,10 +362,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -312,10 +373,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -323,7 +384,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>16</v>
@@ -334,10 +395,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -345,10 +406,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -356,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>21</v>
@@ -371,7 +432,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -379,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
@@ -390,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>9</v>
@@ -398,212 +459,222 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>25</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
@@ -611,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
@@ -622,10 +693,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -633,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>21</v>
@@ -642,42 +713,42 @@
     <row r="40"/>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,185 +29,127 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>12:56:42 PM</t>
+    <t>1:07:36 PM</t>
   </si>
   <si>
     <t>Lanuch browser--chrome</t>
   </si>
   <si>
-    <t>12:56:46 PM</t>
-  </si>
-  <si>
-    <t>Enter URL--https://www.amazon.in/</t>
-  </si>
-  <si>
-    <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
-  </si>
-  <si>
-    <t>12:56:47 PM</t>
-  </si>
-  <si>
-    <t>Click in sign in : Element clicked</t>
-  </si>
-  <si>
-    <t>12:56:48 PM</t>
-  </si>
-  <si>
-    <t>Enter mobile number or Email address:9949584131</t>
-  </si>
-  <si>
-    <t>12:56:49 PM</t>
-  </si>
-  <si>
-    <t>click on continue button : Element clicked</t>
-  </si>
-  <si>
-    <t>Enter passowrd:Sairam@123</t>
-  </si>
-  <si>
-    <t>12:56:50 PM</t>
-  </si>
-  <si>
-    <t>Click on sign in button : Element clicked</t>
-  </si>
-  <si>
-    <t>12:56:53 PM</t>
-  </si>
-  <si>
-    <t>Wait--3sec</t>
-  </si>
-  <si>
-    <t>Close browser</t>
-  </si>
-  <si>
-    <t>12:56:56 PM</t>
-  </si>
-  <si>
-    <t>Lanuch browser--edge</t>
-  </si>
-  <si>
-    <t>12:56:59 PM</t>
-  </si>
-  <si>
-    <t>12:57:00 PM</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Click in sign in is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.ElementNotInteractableException: element not interactable
-  (Session info: MicrosoftEdge=117.0.2045.36)
+    <t>1:08:07 PM</t>
+  </si>
+  <si>
+    <t>Enter URL is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.TimeoutException: timeout: Timed out receiving message from renderer: 29.690
+  (Session info: chrome=117.0.5938.89)
 Build info: version: '4.11.0', revision: '040bc5406b'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Command: [c578ef47c97df800373e6eabb7edbdbd, clickElement {id=28B3C61B7A30EC376F82227AC61262C6_element_95}]
-Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[EdgeDriver: msedge on windows (c578ef47c97df800373e6eabb7edbdbd)] -&gt; xpath: //*[@id="nav-flyout-ya-signin"]/a/span]
-Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
-  </si>
-  <si>
-    <t>12:57:01 PM</t>
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b60d488729a6f86f7892332d97c6031c, get {url=https://www.amazon.in/}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.89, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55483}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55483/devtoo..., se:cdpVersion: 117.0.5938.89, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b60d488729a6f86f7892332d97c6031c</t>
+  </si>
+  <si>
+    <t>1:08:29 PM</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Click in sign in - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>Enter mobile number or Email address is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="ap_email"]"}
+    <t>Enter URL - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>1:08:30 PM</t>
+  </si>
+  <si>
+    <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
+  </si>
+  <si>
+    <t>1:08:31 PM</t>
+  </si>
+  <si>
+    <t>Click in sign in : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address:9949584131</t>
+  </si>
+  <si>
+    <t>1:08:36 PM</t>
+  </si>
+  <si>
+    <t>click on continue button : Element clicked</t>
+  </si>
+  <si>
+    <t>Enter passowrd:Sairam@123</t>
+  </si>
+  <si>
+    <t>Click on sign in button : Element clicked</t>
+  </si>
+  <si>
+    <t>1:08:39 PM</t>
+  </si>
+  <si>
+    <t>Wait--3sec</t>
+  </si>
+  <si>
+    <t>1:08:40 PM</t>
+  </si>
+  <si>
+    <t>Close browser</t>
+  </si>
+  <si>
+    <t>1:08:43 PM</t>
+  </si>
+  <si>
+    <t>Lanuch browser--edge</t>
+  </si>
+  <si>
+    <t>1:08:46 PM</t>
+  </si>
+  <si>
+    <t>Enter URL--https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>1:08:47 PM</t>
+  </si>
+  <si>
+    <t>1:08:48 PM</t>
+  </si>
+  <si>
+    <t>1:08:50 PM</t>
+  </si>
+  <si>
+    <t>Enter passowrd:871guhn</t>
+  </si>
+  <si>
+    <t>1:08:51 PM</t>
+  </si>
+  <si>
+    <t>1:08:52 PM</t>
+  </si>
+  <si>
+    <t>Verify Logo is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="nav-logo-sprites"]"}
   (Session info: MicrosoftEdge=117.0.2045.36)
 For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
 Build info: version: '4.11.0', revision: '040bc5406b'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
 Driver info: org.openqa.selenium.edge.EdgeDriver
-Command: [c578ef47c97df800373e6eabb7edbdbd, findElement {using=xpath, value=//*[@id="ap_email"]}]
-Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
-  </si>
-  <si>
-    <t>12:57:02 PM</t>
-  </si>
-  <si>
-    <t>Enter mobile number or Email address - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>12:57:03 PM</t>
-  </si>
-  <si>
-    <t>click on continue button is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="continue"]"}
-  (Session info: MicrosoftEdge=117.0.2045.36)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.11.0', revision: '040bc5406b'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Command: [c578ef47c97df800373e6eabb7edbdbd, findElement {using=xpath, value=//*[@id="continue"]}]
-Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
-  </si>
-  <si>
-    <t>12:57:04 PM</t>
-  </si>
-  <si>
-    <t>click on continue button - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>Enter passowrd is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="ap_password"]"}
-  (Session info: MicrosoftEdge=117.0.2045.36)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.11.0', revision: '040bc5406b'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Command: [c578ef47c97df800373e6eabb7edbdbd, findElement {using=xpath, value=//*[@id="ap_password"]}]
-Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
-  </si>
-  <si>
-    <t>12:57:05 PM</t>
-  </si>
-  <si>
-    <t>Enter passowrd - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>Click on sign in button is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="signInSubmit"]"}
-  (Session info: MicrosoftEdge=117.0.2045.36)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.11.0', revision: '040bc5406b'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Command: [c578ef47c97df800373e6eabb7edbdbd, findElement {using=xpath, value=//*[@id="signInSubmit"]}]
-Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55106}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55106/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c578ef47c97df800373e6eabb7edbdbd</t>
-  </si>
-  <si>
-    <t>Click on sign in button - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>12:57:06 PM</t>
-  </si>
-  <si>
-    <t>Verify Logo : Element is Present</t>
-  </si>
-  <si>
-    <t>12:57:09 PM</t>
-  </si>
-  <si>
-    <t>12:57:10 PM</t>
+Command: [e06a81b5a9e1501e546b53cf9c0f5c91, findElement {using=xpath, value=//*[@id="nav-logo-sprites"]}]
+Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55602}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55602/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e06a81b5a9e1501e546b53cf9c0f5c91</t>
+  </si>
+  <si>
+    <t>Verify Logo - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>1:08:56 PM</t>
   </si>
   <si>
     <t>username</t>
@@ -295,7 +237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -326,43 +268,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>13</v>
@@ -384,10 +326,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -395,7 +337,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>18</v>
@@ -423,16 +365,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13"/>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
     <row r="14">
       <c r="A14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -440,114 +392,104 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>36</v>
@@ -558,7 +500,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>36</v>
@@ -569,186 +511,87 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
+    </row>
+    <row r="31"/>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40"/>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/resources/reports/ExcelReport.xlsx
+++ b/resources/reports/ExcelReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
   <si>
     <t>OPEN BOWSER</t>
   </si>
@@ -29,127 +29,160 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>1:07:36 PM</t>
-  </si>
-  <si>
-    <t>Lanuch browser--chrome</t>
+    <t>5:04:00 PM</t>
+  </si>
+  <si>
+    <t>Lanuch browser--firefox</t>
+  </si>
+  <si>
+    <t>5:04:04 PM</t>
+  </si>
+  <si>
+    <t>Enter URL--https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>1:08:07 PM</t>
-  </si>
-  <si>
-    <t>Enter URL is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.TimeoutException: timeout: Timed out receiving message from renderer: 29.690
-  (Session info: chrome=117.0.5938.89)
+    <t>5:04:05 PM</t>
+  </si>
+  <si>
+    <t>Click in sign in is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.ElementNotInteractableException: Element &lt;span class="nav-action-inner"&gt; could not be scrolled into view
 Build info: version: '4.11.0', revision: '040bc5406b'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b60d488729a6f86f7892332d97c6031c, get {url=https://www.amazon.in/}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.89, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55483}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55483/devtoo..., se:cdpVersion: 117.0.5938.89, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b60d488729a6f86f7892332d97c6031c</t>
-  </si>
-  <si>
-    <t>1:08:29 PM</t>
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [da81c906-2d65-47a5-af4c-b439c7a0bbcf, clickElement {id=77059455-e1a8-40f6-a62d-0fd20cfdc9cf}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:29081, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 15724, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:29081/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Element: [[FirefoxDriver: firefox on windows (da81c906-2d65-47a5-af4c-b439c7a0bbcf)] -&gt; xpath: //*[@id="nav-flyout-ya-signin"]/a/span]
+Session ID: da81c906-2d65-47a5-af4c-b439c7a0bbcf</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Enter URL - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>1:08:30 PM</t>
-  </si>
-  <si>
-    <t>Mousehover on Accounts and lists : Mouse hovered on element</t>
-  </si>
-  <si>
-    <t>1:08:31 PM</t>
-  </si>
-  <si>
-    <t>Click in sign in : Element clicked</t>
-  </si>
-  <si>
-    <t>Enter mobile number or Email address:9949584131</t>
-  </si>
-  <si>
-    <t>1:08:36 PM</t>
-  </si>
-  <si>
-    <t>click on continue button : Element clicked</t>
-  </si>
-  <si>
-    <t>Enter passowrd:Sairam@123</t>
-  </si>
-  <si>
-    <t>Click on sign in button : Element clicked</t>
-  </si>
-  <si>
-    <t>1:08:39 PM</t>
-  </si>
-  <si>
-    <t>Wait--3sec</t>
-  </si>
-  <si>
-    <t>1:08:40 PM</t>
-  </si>
-  <si>
-    <t>Close browser</t>
-  </si>
-  <si>
-    <t>1:08:43 PM</t>
-  </si>
-  <si>
-    <t>Lanuch browser--edge</t>
-  </si>
-  <si>
-    <t>1:08:46 PM</t>
-  </si>
-  <si>
-    <t>Enter URL--https://www.amazon.in/</t>
-  </si>
-  <si>
-    <t>1:08:47 PM</t>
-  </si>
-  <si>
-    <t>1:08:48 PM</t>
-  </si>
-  <si>
-    <t>1:08:50 PM</t>
-  </si>
-  <si>
-    <t>Enter passowrd:871guhn</t>
-  </si>
-  <si>
-    <t>1:08:51 PM</t>
-  </si>
-  <si>
-    <t>1:08:52 PM</t>
-  </si>
-  <si>
-    <t>Verify Logo is Failed</t>
-  </si>
-  <si>
-    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="nav-logo-sprites"]"}
-  (Session info: MicrosoftEdge=117.0.2045.36)
+    <t>Click in sign in - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>5:04:06 PM</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="ap_email"]
 For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
 Build info: version: '4.11.0', revision: '040bc5406b'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Command: [e06a81b5a9e1501e546b53cf9c0f5c91, findElement {using=xpath, value=//*[@id="nav-logo-sprites"]}]
-Capabilities {acceptInsecureCerts: false, browserName: msedge, browserVersion: 117.0.2045.36, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:55602}, msedge: {msedgedriverVersion: 117.0.2045.36 (7e3a0633c58a..., userDataDir: C:\Users\ROOPAV~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55602/devtoo..., se:cdpVersion: 117.0.2045.36, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e06a81b5a9e1501e546b53cf9c0f5c91</t>
-  </si>
-  <si>
-    <t>Verify Logo - Test case failed base64 img</t>
-  </si>
-  <si>
-    <t>1:08:56 PM</t>
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [da81c906-2d65-47a5-af4c-b439c7a0bbcf, findElement {using=xpath, value=//*[@id="ap_email"]}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:29081, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 15724, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:29081/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: da81c906-2d65-47a5-af4c-b439c7a0bbcf</t>
+  </si>
+  <si>
+    <t>Enter mobile number or Email address - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>click on continue button is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="continue"]
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [da81c906-2d65-47a5-af4c-b439c7a0bbcf, findElement {using=xpath, value=//*[@id="continue"]}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:29081, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 15724, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:29081/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: da81c906-2d65-47a5-af4c-b439c7a0bbcf</t>
+  </si>
+  <si>
+    <t>5:04:07 PM</t>
+  </si>
+  <si>
+    <t>click on continue button - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Enter passowrd is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="ap_password"]
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [da81c906-2d65-47a5-af4c-b439c7a0bbcf, findElement {using=xpath, value=//*[@id="ap_password"]}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:29081, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 15724, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:29081/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: da81c906-2d65-47a5-af4c-b439c7a0bbcf</t>
+  </si>
+  <si>
+    <t>5:04:08 PM</t>
+  </si>
+  <si>
+    <t>Enter passowrd - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Click on sign in button is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="signInSubmit"]
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [da81c906-2d65-47a5-af4c-b439c7a0bbcf, findElement {using=xpath, value=//*[@id="signInSubmit"]}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:29081, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 15724, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:29081/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: da81c906-2d65-47a5-af4c-b439c7a0bbcf</t>
+  </si>
+  <si>
+    <t>Click on sign in button - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>5:04:09 PM</t>
+  </si>
+  <si>
+    <t>Logo screenshot :Element Screenshot captured</t>
+  </si>
+  <si>
+    <t>Search item in search bar:Apple iPhone 14 (128 GB) - Blue</t>
+  </si>
+  <si>
+    <t>5:04:11 PM</t>
+  </si>
+  <si>
+    <t>Click on search button : Element clicked</t>
+  </si>
+  <si>
+    <t>5:04:12 PM</t>
+  </si>
+  <si>
+    <t>Click on signOut is Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //*[@id="nav-item-signout"]/span
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.11.0', revision: '040bc5406b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [da81c906-2d65-47a5-af4c-b439c7a0bbcf, findElement {using=xpath, value=//*[@id="nav-item-signout"]/span}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 117.0.1, moz:accessibilityChecks: false, moz:buildID: 20230912013654, moz:debuggerAddress: 127.0.0.1:29081, moz:geckodriverVersion: 0.33.0, moz:headless: false, moz:platformVersion: 10.0, moz:processID: 15724, moz:profile: C:\Users\ROOPAV~1\AppData\L..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://127.0.0.1:29081/devtoo..., se:cdpVersion: 85.0, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: da81c906-2d65-47a5-af4c-b439c7a0bbcf</t>
+  </si>
+  <si>
+    <t>Click on signOut - Test case failed base64 img</t>
+  </si>
+  <si>
+    <t>5:04:14 PM</t>
+  </si>
+  <si>
+    <t>Close browser</t>
   </si>
   <si>
     <t>username</t>
@@ -237,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -268,29 +301,29 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>8</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>11</v>
@@ -301,7 +334,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>11</v>
@@ -312,223 +345,233 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>16</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -536,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -547,51 +590,106 @@
         <v>4</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B39" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
+    <row r="40">
+      <c r="A40" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B40" t="s" s="0">
         <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
